--- a/public/templates/upload_jobs_template.xlsx
+++ b/public/templates/upload_jobs_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajar\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\NOD Projects\Jobthalam\New folder\jobthalam-demo\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_F25DC773A252ABDACC1048BB399A7C5C5ADE58EE" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F9D4992B-47C4-4BB8-A5F7-562F9E05BE9C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F1BD8F-4DF9-4E50-B66B-962F146BABF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>company_name</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>Internship</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,7 +406,7 @@
     <col min="12" max="12" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +446,27 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{8E2302E0-0054-4413-A58B-CA04C013ADF2}">
+      <formula1>" No formal education, Primary education, Secondary education or high school, GED, Vocational qualification, Bachelor's degree, Master's degree, Doctorate or higher"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{5A079FCE-7B58-477D-A940-E4CC4BC07663}">
+      <formula1>"Fresher, Experienced"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2" xr:uid="{E1DE84C6-30F9-4625-855C-0079D24C1BE4}">
+      <formula1>"Full time, Part time, Internship"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>